--- a/stats_train.xlsx
+++ b/stats_train.xlsx
@@ -52,25 +52,25 @@
     <t>guid</t>
   </si>
   <si>
+    <t>timestamp</t>
+  </si>
+  <si>
     <t>device_version</t>
   </si>
   <si>
-    <t>timestamp</t>
+    <t>app_version</t>
   </si>
   <si>
     <t>device_vendor</t>
   </si>
   <si>
-    <t>app_version</t>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>netmodel</t>
   </si>
   <si>
     <t>osversion</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>netmodel</t>
   </si>
   <si>
     <t>target</t>
@@ -477,13 +477,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>11376681</v>
+        <v>2000</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.789909816404275e-06</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>11005321</v>
+        <v>1996</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.789909816404275e-05</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -511,13 +511,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1152851</v>
+        <v>1799</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1901609089680901</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -528,13 +528,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>324019</v>
+        <v>468</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>16.60134445186606</v>
+        <v>19.55</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -545,13 +545,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>288843</v>
+        <v>455</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>16.60132687204642</v>
+        <v>19.55</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -562,13 +562,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>104736</v>
+        <v>262</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9051761229834958</v>
+        <v>9.35</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -579,13 +579,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>104332</v>
+        <v>255</v>
       </c>
       <c r="C8">
-        <v>1.454448797500782</v>
+        <v>1.5</v>
       </c>
       <c r="D8">
-        <v>1.454448797500782</v>
+        <v>9.35</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2074</v>
+        <v>165</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>90.3</v>
       </c>
       <c r="D9">
-        <v>2.965126648097103</v>
+        <v>90.3</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,16 +613,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>1979</v>
+        <v>130</v>
       </c>
       <c r="C10">
-        <v>89.34647108414133</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>89.34647108414133</v>
+        <v>9.5</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>28.27141764808207</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
@@ -647,13 +647,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>67.60799568872503</v>
+        <v>28.45</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -664,16 +664,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>31.58159220602212</v>
+        <v>32.7</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,16 +681,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>32.00255856694936</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>75.93162715909851</v>
+        <v>50.84999999999999</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>89.34647108414133</v>
+        <v>90.3</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
